--- a/paper_ClusterRobustTesting/CRVE_sims_table.xlsx
+++ b/paper_ClusterRobustTesting/CRVE_sims_table.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jep2963\Documents\R\clubSandwich\paper_ClusterRobustTesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="0" windowWidth="42040" windowHeight="20300" tabRatio="500"/>
+    <workbookView xWindow="645" yWindow="0" windowWidth="42045" windowHeight="20295" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Review t-test" sheetId="2" r:id="rId1"/>
     <sheet name="data entry" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -443,14 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,44 +559,44 @@
   </borders>
   <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -620,24 +618,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,45 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,28 +658,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -740,6 +690,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -785,6 +783,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1112,1133 +1118,1125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="14" max="17" width="10.83203125" style="39"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="14" max="17" width="10.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="2:17" ht="16">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="16" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="40" t="s">
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="14" t="s">
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41" t="s">
+      <c r="O5" s="47"/>
+      <c r="P5" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36" t="s">
+      <c r="Q5" s="47"/>
+    </row>
+    <row r="6" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="44"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="42" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="12">
         <v>20</v>
       </c>
-      <c r="E7" s="19">
-        <v>10</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="12">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12">
         <v>4</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="19" t="s">
+      <c r="J7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="27">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="27">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="27">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="27">
         <v>0.16189999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="14">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="22" t="s">
+      <c r="H8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="28">
         <v>4.7E-2</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="28">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="28">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="28">
         <v>0.105</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="24" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="25">
-        <v>1</v>
-      </c>
-      <c r="D9" s="25">
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
         <v>30</v>
       </c>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25">
-        <v>1</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="25" t="s">
+      <c r="I9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="29">
         <f>1-0.991</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="29">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="29">
         <f>1-0.881</f>
         <v>0.11899999999999999</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="29">
         <f>1-0.783</f>
         <v>0.21699999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="27"/>
-      <c r="C10" s="28">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
+      <c r="C10" s="18">
         <v>2</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="18">
         <v>30</v>
       </c>
-      <c r="E10" s="28">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28">
-        <v>1</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="29" t="s">
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="28" t="s">
+      <c r="I10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="30">
         <f>1-0.997</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="30">
         <f>1-0.872</f>
         <v>0.128</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="30">
         <f>1-0.926</f>
         <v>7.3999999999999955E-2</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="30">
         <f>1-0.682</f>
         <v>0.31799999999999995</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="27"/>
-      <c r="C11" s="28">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="18">
         <v>3</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="18">
         <v>30</v>
       </c>
-      <c r="E11" s="28">
-        <v>1</v>
-      </c>
-      <c r="F11" s="28">
-        <v>1</v>
-      </c>
-      <c r="G11" s="29" t="s">
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="28" t="s">
+      <c r="H11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="30">
         <f>1-0.95</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="30">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="30">
         <v>0.05</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="30">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="18">
         <v>4</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="28">
-        <v>1</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="29" t="s">
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="28" t="s">
+      <c r="J12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="30">
         <f>1-0.974</f>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="30">
         <f>1-0.942</f>
         <v>5.8000000000000052E-2</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="30">
         <f>1-0.918</f>
         <v>8.1999999999999962E-2</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="30">
         <f>1-0.872</f>
         <v>0.128</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
+      <c r="C13" s="18">
         <v>5</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="18">
         <v>50</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="18">
         <v>6</v>
       </c>
-      <c r="F13" s="28">
-        <v>1</v>
-      </c>
-      <c r="G13" s="29" t="s">
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="28" t="s">
+      <c r="H13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="30">
         <f>1-0.952</f>
         <v>4.8000000000000043E-2</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="30">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="30">
         <v>0.06</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="30">
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="40"/>
+      <c r="C14" s="18">
         <v>5</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="18">
         <v>50</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="18">
         <v>6</v>
       </c>
-      <c r="F14" s="28">
-        <v>1</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="29" t="s">
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="28" t="s">
+      <c r="I14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="30">
         <f>1-0.987</f>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="30">
         <f>1-0.949</f>
         <v>5.1000000000000045E-2</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="30">
         <f>1-0.849</f>
         <v>0.15100000000000002</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="30">
         <f>1-0.775</f>
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="30"/>
-      <c r="C15" s="19">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="12">
         <v>5</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="12">
         <v>50</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="12">
         <v>6</v>
       </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="18" t="s">
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="19" t="s">
+      <c r="K15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="27">
         <f>1-0.971</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="27">
         <f>1-0.971</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="27">
         <f>1-0.873</f>
         <v>0.127</v>
       </c>
-      <c r="Q15" s="43">
+      <c r="Q15" s="27">
         <v>0.127</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="25">
-        <v>1</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26" t="s">
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="25" t="s">
+      <c r="H16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="29">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="29">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="29">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="29">
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28">
-        <v>1</v>
-      </c>
-      <c r="D17" s="28" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="40"/>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="28">
-        <v>1</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="29" t="s">
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="28" t="s">
+      <c r="I17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="31">
         <v>1.9E-3</v>
       </c>
-      <c r="O17" s="47">
+      <c r="O17" s="31">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="30">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="30">
         <v>0.15160000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28">
-        <v>1</v>
-      </c>
-      <c r="D18" s="28" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="40"/>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="28">
-        <v>1</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="29" t="s">
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="28" t="s">
+      <c r="I18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="47">
+      <c r="N18" s="31">
         <v>1.4E-3</v>
       </c>
-      <c r="O18" s="47">
+      <c r="O18" s="31">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="30">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="30">
         <v>0.2344</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28">
-        <v>1</v>
-      </c>
-      <c r="D19" s="28" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="40"/>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="28">
-        <v>1</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="29" t="s">
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="28" t="s">
+      <c r="J19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="31">
         <v>1.49E-2</v>
       </c>
-      <c r="O19" s="47">
+      <c r="O19" s="31">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="30">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="30">
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28">
-        <v>1</v>
-      </c>
-      <c r="D20" s="28" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="40"/>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="28">
-        <v>1</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="29" t="s">
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="28" t="s">
+      <c r="J20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="31">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="31">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="30">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="30">
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28">
-        <v>1</v>
-      </c>
-      <c r="D21" s="28" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="40"/>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="28">
-        <v>1</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="31">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="31">
         <v>0.10630000000000001</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="30">
         <v>1.77E-2</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="30">
         <v>0.3352</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="40"/>
+      <c r="C22" s="18">
         <v>2</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="18">
         <v>20</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="18">
         <v>4</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="29" t="s">
+      <c r="G22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="28" t="s">
+      <c r="J22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="31">
         <v>1.43E-2</v>
       </c>
-      <c r="O22" s="47">
+      <c r="O22" s="31">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="30">
         <v>1.38E-2</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="30">
         <v>0.1249</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="16" thickBot="1">
-      <c r="B23" s="38"/>
-      <c r="C23" s="37">
+    <row r="23" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="42"/>
+      <c r="C23" s="24">
         <v>2</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="24">
         <v>20</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="24">
         <v>4</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="36" t="s">
+      <c r="G23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="37" t="s">
+      <c r="J23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="48">
+      <c r="N23" s="32">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="32">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="26">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="26">
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="28" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="30">
         <f>MIN(N7:N23)</f>
         <v>1.4E-3</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="30">
         <f t="shared" ref="O24:Q24" si="0">MIN(O7:O23)</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="30">
         <f t="shared" si="0"/>
         <v>1.38E-2</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="30">
         <f t="shared" si="0"/>
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="28" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="30">
         <f>MEDIAN(N7:N23)</f>
         <v>1.49E-2</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="30">
         <f t="shared" ref="O25:Q25" si="1">MEDIAN(O7:O23)</f>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="30">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="30">
         <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="16" thickBot="1">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="37" t="s">
+    <row r="26" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="26">
         <f>MAX(N7:N23)</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="26">
         <f t="shared" ref="O26:Q26" si="2">MAX(O7:O23)</f>
         <v>0.128</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="26">
         <f t="shared" si="2"/>
         <v>0.15100000000000002</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="26">
         <f t="shared" si="2"/>
         <v>0.3352</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
-      <c r="B27" s="51" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-    </row>
-    <row r="29" spans="2:17" ht="34" customHeight="1">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B27:Q29"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -2249,6 +2247,14 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B27:Q29"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2267,54 +2273,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T23"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Q12"/>
+    <sheetView showRuler="0" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="5"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="5"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="9" width="10.875" style="2"/>
     <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="10"/>
+    <col min="11" max="12" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="N2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
-      <c r="G3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="51"/>
       <c r="P3" t="s">
         <v>56</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2350,10 +2356,10 @@
       <c r="J4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>46</v>
       </c>
       <c r="M4" t="s">
@@ -2378,7 +2384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -2400,10 +2406,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M5" t="s">
@@ -2422,7 +2428,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -2441,10 +2447,10 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M6" t="s">
@@ -2463,7 +2469,7 @@
         <v>0.15160000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -2482,10 +2488,10 @@
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
@@ -2504,7 +2510,7 @@
         <v>0.2344</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1</v>
       </c>
@@ -2523,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
@@ -2545,7 +2551,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2564,10 +2570,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
@@ -2586,7 +2592,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1</v>
       </c>
@@ -2605,10 +2611,10 @@
       <c r="J10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
@@ -2627,7 +2633,7 @@
         <v>0.3352</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2</v>
       </c>
@@ -2652,10 +2658,10 @@
       <c r="J11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
@@ -2674,7 +2680,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2</v>
       </c>
@@ -2695,10 +2701,10 @@
         <v>33</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
@@ -2717,7 +2723,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="30">
+    <row r="13" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
@@ -2745,10 +2751,10 @@
       <c r="J13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="K13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="M13" t="s">
@@ -2776,7 +2782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
       <c r="G14" s="8"/>
@@ -2784,7 +2790,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:20" ht="30">
+    <row r="15" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +2818,7 @@
       <c r="J15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M15" t="s">
@@ -2846,7 +2852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2</v>
       </c>
@@ -2871,7 +2877,7 @@
       <c r="J16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M16" t="s">
@@ -2905,7 +2911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3</v>
       </c>
@@ -2924,7 +2930,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M17" t="s">
@@ -2954,7 +2960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>4</v>
       </c>
@@ -2979,10 +2985,10 @@
       <c r="J18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="K18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M18" t="s">
@@ -3013,7 +3019,7 @@
         <v>6.2999999999999945E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>5</v>
       </c>
@@ -3032,7 +3038,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M19" t="s">
@@ -3060,7 +3066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>5</v>
       </c>
@@ -3079,7 +3085,7 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M20" t="s">
@@ -3110,7 +3116,7 @@
         <v>5.5000000000000049E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>5</v>
       </c>
@@ -3129,7 +3135,7 @@
       <c r="J21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M21" t="s">
@@ -3158,13 +3164,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:20" ht="30">
+    <row r="23" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3192,10 +3198,10 @@
       <c r="J23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="10" t="s">
+      <c r="K23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M23" t="s">
